--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1802,28 +1802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>595.037661849217</v>
+        <v>631.6245531988027</v>
       </c>
       <c r="AB2" t="n">
-        <v>814.1567801510229</v>
+        <v>864.2165789952547</v>
       </c>
       <c r="AC2" t="n">
-        <v>736.4547997296263</v>
+        <v>781.7369616315334</v>
       </c>
       <c r="AD2" t="n">
-        <v>595037.661849217</v>
+        <v>631624.5531988026</v>
       </c>
       <c r="AE2" t="n">
-        <v>814156.7801510228</v>
+        <v>864216.5789952547</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.162007215629935e-06</v>
+        <v>4.000279393600663e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.029166666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>736454.7997296263</v>
+        <v>781736.9616315335</v>
       </c>
     </row>
     <row r="3">
@@ -1908,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.0737311263192</v>
+        <v>214.4649323536752</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.0672643881119</v>
+        <v>293.440381971217</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.2468096816844</v>
+        <v>265.4348437621333</v>
       </c>
       <c r="AD3" t="n">
-        <v>190073.7311263192</v>
+        <v>214464.9323536752</v>
       </c>
       <c r="AE3" t="n">
-        <v>260067.2643881119</v>
+        <v>293440.381971217</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.054711778084914e-06</v>
+        <v>7.502278371507209e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.747916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>235246.8096816844</v>
+        <v>265434.8437621333</v>
       </c>
     </row>
     <row r="4">
@@ -2014,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.5199821012187</v>
+        <v>205.9111833285748</v>
       </c>
       <c r="AB4" t="n">
-        <v>248.3636476072013</v>
+        <v>281.7367651903065</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.6601696602109</v>
+        <v>254.8482037406598</v>
       </c>
       <c r="AD4" t="n">
-        <v>181519.9821012187</v>
+        <v>205911.1833285748</v>
       </c>
       <c r="AE4" t="n">
-        <v>248363.6476072013</v>
+        <v>281736.7651903065</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.165583942989013e-06</v>
+        <v>7.707420904512371e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.647916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>224660.1696602109</v>
+        <v>254848.2037406598</v>
       </c>
     </row>
   </sheetData>
@@ -2311,28 +2311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>347.2735342405483</v>
+        <v>382.3940784381077</v>
       </c>
       <c r="AB2" t="n">
-        <v>475.1549701749742</v>
+        <v>523.2084481551334</v>
       </c>
       <c r="AC2" t="n">
-        <v>429.806846705663</v>
+        <v>473.2741681908757</v>
       </c>
       <c r="AD2" t="n">
-        <v>347273.5342405483</v>
+        <v>382394.0784381077</v>
       </c>
       <c r="AE2" t="n">
-        <v>475154.9701749742</v>
+        <v>523208.4481551333</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.894708272262106e-06</v>
+        <v>5.517760714202556e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.430208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>429806.846705663</v>
+        <v>473274.1681908757</v>
       </c>
     </row>
     <row r="3">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.8016845396719</v>
+        <v>198.3291088051061</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.1713764931273</v>
+        <v>271.3626363297815</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.3451959998277</v>
+        <v>245.4641671783987</v>
       </c>
       <c r="AD3" t="n">
-        <v>174801.6845396719</v>
+        <v>198329.1088051061</v>
       </c>
       <c r="AE3" t="n">
-        <v>239171.3764931273</v>
+        <v>271362.6363297815</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.171603464984576e-06</v>
+        <v>7.951720017829469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.76875</v>
       </c>
       <c r="AH3" t="n">
-        <v>216345.1959998277</v>
+        <v>245464.1671783987</v>
       </c>
     </row>
   </sheetData>
@@ -2714,28 +2714,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.7139975188403</v>
+        <v>207.7262233557935</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.4703286453757</v>
+        <v>284.2201830294605</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.0885990343937</v>
+        <v>257.0946076667447</v>
       </c>
       <c r="AD2" t="n">
-        <v>186713.9975188403</v>
+        <v>207726.2233557935</v>
       </c>
       <c r="AE2" t="n">
-        <v>255470.3286453757</v>
+        <v>284220.1830294605</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.814756150532241e-06</v>
+        <v>8.124432267755557e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.597916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>231088.5990343937</v>
+        <v>257094.6076667446</v>
       </c>
     </row>
   </sheetData>
@@ -3011,28 +3011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.7978952454611</v>
+        <v>203.656235991841</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.7439006318161</v>
+        <v>278.6514467629333</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.0041318698451</v>
+        <v>252.0573437737226</v>
       </c>
       <c r="AD2" t="n">
-        <v>181797.8952454611</v>
+        <v>203656.2359918409</v>
       </c>
       <c r="AE2" t="n">
-        <v>248743.9006318161</v>
+        <v>278651.4467629333</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.041257569481868e-06</v>
+        <v>8.205150056745287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.152083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>225004.1318698451</v>
+        <v>252057.3437737226</v>
       </c>
     </row>
     <row r="3">
@@ -3117,28 +3117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.1446497066764</v>
+        <v>204.0029904530562</v>
       </c>
       <c r="AB3" t="n">
-        <v>249.2183453833779</v>
+        <v>279.125891514495</v>
       </c>
       <c r="AC3" t="n">
-        <v>225.4332962802052</v>
+        <v>252.4865081840828</v>
       </c>
       <c r="AD3" t="n">
-        <v>182144.6497066764</v>
+        <v>204002.9904530562</v>
       </c>
       <c r="AE3" t="n">
-        <v>249218.3453833779</v>
+        <v>279125.891514495</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.049151594632539e-06</v>
+        <v>8.221177657015589e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.144791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>225433.2962802052</v>
+        <v>252486.5081840828</v>
       </c>
     </row>
   </sheetData>
@@ -3414,28 +3414,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.5053762906257</v>
+        <v>229.5984423931635</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.6544985655847</v>
+        <v>314.1467180505774</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.2965955446851</v>
+        <v>284.1649961876114</v>
       </c>
       <c r="AD2" t="n">
-        <v>209505.3762906257</v>
+        <v>229598.4423931635</v>
       </c>
       <c r="AE2" t="n">
-        <v>286654.4985655847</v>
+        <v>314146.7180505774</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.498292888254132e-06</v>
+        <v>7.790014961438059e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.207291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>259296.5955446852</v>
+        <v>284164.9961876114</v>
       </c>
     </row>
   </sheetData>
@@ -3711,28 +3711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.055514829932</v>
+        <v>424.6872058127075</v>
       </c>
       <c r="AB2" t="n">
-        <v>532.3229193082598</v>
+        <v>581.075770870156</v>
       </c>
       <c r="AC2" t="n">
-        <v>481.5187670093883</v>
+        <v>525.6187148432741</v>
       </c>
       <c r="AD2" t="n">
-        <v>389055.514829932</v>
+        <v>424687.2058127075</v>
       </c>
       <c r="AE2" t="n">
-        <v>532322.9193082597</v>
+        <v>581075.770870156</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.706732120367038e-06</v>
+        <v>5.117790753884427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.755208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>481518.7670093883</v>
+        <v>525618.7148432741</v>
       </c>
     </row>
     <row r="3">
@@ -3817,28 +3817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.2972826575828</v>
+        <v>200.0517433127662</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.2177198191843</v>
+        <v>273.7196208604318</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.1962391909073</v>
+        <v>247.5962044134931</v>
       </c>
       <c r="AD3" t="n">
-        <v>176297.2826575828</v>
+        <v>200051.7433127662</v>
       </c>
       <c r="AE3" t="n">
-        <v>241217.7198191843</v>
+        <v>273719.6208604318</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.172417543043409e-06</v>
+        <v>7.889055500711003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.733333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>218196.2391909073</v>
+        <v>247596.2044134931</v>
       </c>
     </row>
     <row r="4">
@@ -3923,28 +3923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>176.1709114421552</v>
+        <v>199.9253720973386</v>
       </c>
       <c r="AB4" t="n">
-        <v>241.0448131471318</v>
+        <v>273.5467141883793</v>
       </c>
       <c r="AC4" t="n">
-        <v>218.0398344889594</v>
+        <v>247.4397997115451</v>
       </c>
       <c r="AD4" t="n">
-        <v>176170.9114421553</v>
+        <v>199925.3720973386</v>
       </c>
       <c r="AE4" t="n">
-        <v>241044.8131471318</v>
+        <v>273546.7141883793</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.184831001215056e-06</v>
+        <v>7.912526416423922e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.722916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>218039.8344889594</v>
+        <v>247439.7997115451</v>
       </c>
     </row>
   </sheetData>
@@ -4220,28 +4220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.794969421947</v>
+        <v>252.1937363763429</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.8379061833197</v>
+        <v>345.0625961123656</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.7446042599622</v>
+        <v>312.1303062378997</v>
       </c>
       <c r="AD2" t="n">
-        <v>222794.969421947</v>
+        <v>252193.7363763429</v>
       </c>
       <c r="AE2" t="n">
-        <v>304837.9061833197</v>
+        <v>345062.5961123655</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.243594554063147e-06</v>
+        <v>7.436157019236937e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.747916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>275744.6042599622</v>
+        <v>312130.3062378997</v>
       </c>
     </row>
   </sheetData>
@@ -4517,28 +4517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.5210303367938</v>
+        <v>253.3969525246791</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.4090435767593</v>
+        <v>346.7088895286684</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.3068471372599</v>
+        <v>313.6194797211384</v>
       </c>
       <c r="AD2" t="n">
-        <v>230521.0303367938</v>
+        <v>253396.9525246791</v>
       </c>
       <c r="AE2" t="n">
-        <v>315409.0435767593</v>
+        <v>346708.8895286684</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.583569403103461e-06</v>
+        <v>7.023746505389499e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.519791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>285306.8471372598</v>
+        <v>313619.4797211384</v>
       </c>
     </row>
     <row r="3">
@@ -4623,28 +4623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.7571566954624</v>
+        <v>194.5477380287761</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.005719181593</v>
+        <v>266.1887980113046</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.5771031755681</v>
+        <v>240.7841127275079</v>
       </c>
       <c r="AD3" t="n">
-        <v>171757.1566954624</v>
+        <v>194547.7380287761</v>
       </c>
       <c r="AE3" t="n">
-        <v>235005.719181593</v>
+        <v>266188.7980113046</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.140533242298003e-06</v>
+        <v>8.115387933007201e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.911458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>212577.1031755681</v>
+        <v>240784.1127275079</v>
       </c>
     </row>
   </sheetData>
@@ -4920,28 +4920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>308.3125781771568</v>
+        <v>331.604422217717</v>
       </c>
       <c r="AB2" t="n">
-        <v>421.8468712529698</v>
+        <v>453.7157998329015</v>
       </c>
       <c r="AC2" t="n">
-        <v>381.586397926388</v>
+        <v>410.4138006909732</v>
       </c>
       <c r="AD2" t="n">
-        <v>308312.5781771567</v>
+        <v>331604.422217717</v>
       </c>
       <c r="AE2" t="n">
-        <v>421846.8712529698</v>
+        <v>453715.7998329015</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.106697852855069e-06</v>
+        <v>5.973257534159467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.108333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>381586.397926388</v>
+        <v>410413.8006909732</v>
       </c>
     </row>
     <row r="3">
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.3342881823747</v>
+        <v>196.6260427143835</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.1636200601159</v>
+        <v>269.0324261704829</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.5290570228784</v>
+        <v>243.3563490062323</v>
       </c>
       <c r="AD3" t="n">
-        <v>173334.2881823747</v>
+        <v>196626.0427143835</v>
       </c>
       <c r="AE3" t="n">
-        <v>237163.6200601159</v>
+        <v>269032.4261704829</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.170549907900525e-06</v>
+        <v>8.018729158376588e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.805208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>214529.0570228784</v>
+        <v>243356.3490062323</v>
       </c>
     </row>
   </sheetData>
@@ -5323,28 +5323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>512.6290048272755</v>
+        <v>548.9929119999559</v>
       </c>
       <c r="AB2" t="n">
-        <v>701.4016200002436</v>
+        <v>751.156322056266</v>
       </c>
       <c r="AC2" t="n">
-        <v>634.4608338107761</v>
+        <v>679.4670169337345</v>
       </c>
       <c r="AD2" t="n">
-        <v>512629.0048272755</v>
+        <v>548992.9119999559</v>
       </c>
       <c r="AE2" t="n">
-        <v>701401.6200002437</v>
+        <v>751156.322056266</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.33369354335907e-06</v>
+        <v>4.34749406896742e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.563541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>634460.8338107761</v>
+        <v>679467.0169337345</v>
       </c>
     </row>
     <row r="3">
@@ -5429,28 +5429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.2118471531176</v>
+        <v>205.3975580318563</v>
       </c>
       <c r="AB3" t="n">
-        <v>247.942043777255</v>
+        <v>281.0340003997879</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.2788031080699</v>
+        <v>254.2125098354115</v>
       </c>
       <c r="AD3" t="n">
-        <v>181211.8471531176</v>
+        <v>205397.5580318563</v>
       </c>
       <c r="AE3" t="n">
-        <v>247942.0437772551</v>
+        <v>281034.0003997879</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.146827846422543e-06</v>
+        <v>7.725225755821126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.69375</v>
       </c>
       <c r="AH3" t="n">
-        <v>224278.8031080699</v>
+        <v>254212.5098354115</v>
       </c>
     </row>
     <row r="4">
@@ -5535,28 +5535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.7420044692061</v>
+        <v>203.9277153479448</v>
       </c>
       <c r="AB4" t="n">
-        <v>245.9309401722456</v>
+        <v>279.0228967947784</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.4596364085202</v>
+        <v>252.3933431358618</v>
       </c>
       <c r="AD4" t="n">
-        <v>179742.0044692061</v>
+        <v>203927.7153479448</v>
       </c>
       <c r="AE4" t="n">
-        <v>245930.9401722456</v>
+        <v>279022.8967947784</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.172708757804472e-06</v>
+        <v>7.773439930751074e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.670833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>222459.6364085202</v>
+        <v>252393.3431358619</v>
       </c>
     </row>
   </sheetData>
@@ -5832,28 +5832,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.3917553709667</v>
+        <v>209.5474710031638</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.3976668392206</v>
+        <v>286.712094408367</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.9274333725456</v>
+        <v>259.3486945210687</v>
       </c>
       <c r="AD2" t="n">
-        <v>187391.7553709667</v>
+        <v>209547.4710031638</v>
       </c>
       <c r="AE2" t="n">
-        <v>256397.6668392206</v>
+        <v>286712.0944083669</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.006270062162964e-06</v>
+        <v>8.030557742878562e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.136458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>231927.4333725456</v>
+        <v>259348.6945210687</v>
       </c>
     </row>
     <row r="3">
@@ -5938,28 +5938,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.0888067745408</v>
+        <v>204.2445224067381</v>
       </c>
       <c r="AB3" t="n">
-        <v>249.1419386200137</v>
+        <v>279.4563661891602</v>
       </c>
       <c r="AC3" t="n">
-        <v>225.364181671099</v>
+        <v>252.7854428196221</v>
       </c>
       <c r="AD3" t="n">
-        <v>182088.8067745408</v>
+        <v>204244.5224067381</v>
       </c>
       <c r="AE3" t="n">
-        <v>249141.9386200137</v>
+        <v>279456.3661891602</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.090585796306885e-06</v>
+        <v>8.199568408951929e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.051041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>225364.181671099</v>
+        <v>252785.4428196221</v>
       </c>
     </row>
   </sheetData>
@@ -6235,28 +6235,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.9103988013599</v>
+        <v>205.1156454690831</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.6343211940749</v>
+        <v>280.6482751942972</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.6186947503735</v>
+        <v>253.8635977021641</v>
       </c>
       <c r="AD2" t="n">
-        <v>183910.39880136</v>
+        <v>205115.6454690832</v>
       </c>
       <c r="AE2" t="n">
-        <v>251634.3211940749</v>
+        <v>280648.2751942973</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.915021126726097e-06</v>
+        <v>8.190469034377023e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.409375</v>
       </c>
       <c r="AH2" t="n">
-        <v>227618.6947503735</v>
+        <v>253863.5977021641</v>
       </c>
     </row>
   </sheetData>
@@ -10313,28 +10313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.5528934570078</v>
+        <v>222.2637082111177</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.0911195449955</v>
+        <v>304.1110111570729</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.0775109428942</v>
+        <v>275.0870830748167</v>
       </c>
       <c r="AD2" t="n">
-        <v>191552.8934570078</v>
+        <v>222263.7082111177</v>
       </c>
       <c r="AE2" t="n">
-        <v>262091.1195449955</v>
+        <v>304111.011157073</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.680660248884085e-06</v>
+        <v>8.00122451891932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.851041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>237077.5109428942</v>
+        <v>275087.0830748167</v>
       </c>
     </row>
   </sheetData>
@@ -10610,28 +10610,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.2656027005992</v>
+        <v>295.2297712101931</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.0021473721599</v>
+        <v>403.9463975880615</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.4075564651827</v>
+        <v>365.3943203445859</v>
       </c>
       <c r="AD2" t="n">
-        <v>257265.6027005991</v>
+        <v>295229.7712101931</v>
       </c>
       <c r="AE2" t="n">
-        <v>352002.1473721599</v>
+        <v>403946.3975880615</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.86639613563172e-06</v>
+        <v>6.817800496738367e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.686458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>318407.5564651827</v>
+        <v>365394.3203445859</v>
       </c>
     </row>
   </sheetData>
@@ -10907,28 +10907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.0042436416045</v>
+        <v>295.4886716904936</v>
       </c>
       <c r="AB2" t="n">
-        <v>357.1175208450076</v>
+        <v>404.3006366470919</v>
       </c>
       <c r="AC2" t="n">
-        <v>323.0347258731477</v>
+        <v>365.7147513250001</v>
       </c>
       <c r="AD2" t="n">
-        <v>261004.2436416045</v>
+        <v>295488.6716904936</v>
       </c>
       <c r="AE2" t="n">
-        <v>357117.5208450076</v>
+        <v>404300.6366470919</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.341281292924692e-06</v>
+        <v>6.484017620372204e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>323034.7258731477</v>
+        <v>365714.7513250001</v>
       </c>
     </row>
     <row r="3">
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.4924450748546</v>
+        <v>195.5389576771614</v>
       </c>
       <c r="AB3" t="n">
-        <v>236.0117731809107</v>
+        <v>267.5450284637492</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.4871407931969</v>
+        <v>242.0109064490531</v>
       </c>
       <c r="AD3" t="n">
-        <v>172492.4450748546</v>
+        <v>195538.9576771614</v>
       </c>
       <c r="AE3" t="n">
-        <v>236011.7731809107</v>
+        <v>267545.0284637492</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.15586766938075e-06</v>
+        <v>8.06478618045742e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.856250000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>213487.1407931969</v>
+        <v>242010.9064490531</v>
       </c>
     </row>
   </sheetData>
@@ -11310,28 +11310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>453.2730112972362</v>
+        <v>489.148252063589</v>
       </c>
       <c r="AB2" t="n">
-        <v>620.188131050821</v>
+        <v>669.2742181712659</v>
       </c>
       <c r="AC2" t="n">
-        <v>560.9982462628387</v>
+        <v>605.3996261212643</v>
       </c>
       <c r="AD2" t="n">
-        <v>453273.0112972362</v>
+        <v>489148.2520635891</v>
       </c>
       <c r="AE2" t="n">
-        <v>620188.1310508209</v>
+        <v>669274.2181712659</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.513092177291778e-06</v>
+        <v>4.715546632844901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>560998.2462628387</v>
+        <v>605399.6261212643</v>
       </c>
     </row>
     <row r="3">
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.2302551203376</v>
+        <v>202.2039165285862</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.8624980194506</v>
+        <v>276.6643192014964</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.5886034717105</v>
+        <v>250.2598648777976</v>
       </c>
       <c r="AD3" t="n">
-        <v>178230.2551203376</v>
+        <v>202203.9165285862</v>
       </c>
       <c r="AE3" t="n">
-        <v>243862.4980194505</v>
+        <v>276664.3192014964</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.166344745396287e-06</v>
+        <v>7.817696904614364e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.707291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>220588.6034717105</v>
+        <v>250259.8648777976</v>
       </c>
     </row>
     <row r="4">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>178.3656068059171</v>
+        <v>202.3392682141658</v>
       </c>
       <c r="AB4" t="n">
-        <v>244.0476921669553</v>
+        <v>276.8495133490013</v>
       </c>
       <c r="AC4" t="n">
-        <v>220.7561229496991</v>
+        <v>250.4273843557861</v>
       </c>
       <c r="AD4" t="n">
-        <v>178365.6068059171</v>
+        <v>202339.2682141658</v>
       </c>
       <c r="AE4" t="n">
-        <v>244047.6921669553</v>
+        <v>276849.5133490012</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.174944624225889e-06</v>
+        <v>7.833833650422671e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.700000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>220756.1229496991</v>
+        <v>250427.3843557861</v>
       </c>
     </row>
   </sheetData>
@@ -11819,28 +11819,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.2474404797495</v>
+        <v>373.9630644413448</v>
       </c>
       <c r="AB2" t="n">
-        <v>449.1226293194325</v>
+        <v>511.6727628546756</v>
       </c>
       <c r="AC2" t="n">
-        <v>406.2589959247543</v>
+        <v>462.8394325050577</v>
       </c>
       <c r="AD2" t="n">
-        <v>328247.4404797495</v>
+        <v>373963.0644413448</v>
       </c>
       <c r="AE2" t="n">
-        <v>449122.6293194325</v>
+        <v>511672.7628546756</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.285896298691652e-06</v>
+        <v>5.716853167428277e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.682291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>406258.9959247543</v>
+        <v>462839.4325050577</v>
       </c>
     </row>
   </sheetData>
@@ -12116,28 +12116,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.55368736792</v>
+        <v>204.0963299705849</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.778008756959</v>
+        <v>279.2536027602266</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.9395461669045</v>
+        <v>252.6020308477657</v>
       </c>
       <c r="AD2" t="n">
-        <v>182553.6873679199</v>
+        <v>204096.3299705849</v>
       </c>
       <c r="AE2" t="n">
-        <v>249778.008756959</v>
+        <v>279253.6027602266</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.986146767168994e-06</v>
+        <v>8.208606099266299e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.267708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>225939.5461669045</v>
+        <v>252602.0308477657</v>
       </c>
     </row>
     <row r="3">
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.9184843586818</v>
+        <v>204.4611269613467</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.2771400934264</v>
+        <v>279.752734096694</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.3910411091549</v>
+        <v>253.053525790016</v>
       </c>
       <c r="AD3" t="n">
-        <v>182918.4843586818</v>
+        <v>204461.1269613467</v>
       </c>
       <c r="AE3" t="n">
-        <v>250277.1400934264</v>
+        <v>279752.734096694</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.995291552869996e-06</v>
+        <v>8.227437805188418e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.257291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>226391.0411091548</v>
+        <v>253053.525790016</v>
       </c>
     </row>
   </sheetData>
@@ -12519,28 +12519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.5870012254254</v>
+        <v>226.0243645369517</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.5567167011013</v>
+        <v>309.2565070505241</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.9716546160373</v>
+        <v>279.7415000619474</v>
       </c>
       <c r="AD2" t="n">
-        <v>203587.0012254254</v>
+        <v>226024.3645369516</v>
       </c>
       <c r="AE2" t="n">
-        <v>278556.7167011013</v>
+        <v>309256.5070505241</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.838591041910992e-06</v>
+        <v>7.604955583865946e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>251971.6546160373</v>
+        <v>279741.5000619474</v>
       </c>
     </row>
     <row r="3">
@@ -12625,28 +12625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.0222603014806</v>
+        <v>204.6355005786575</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.0002015140069</v>
+        <v>279.9913197727197</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.6675507029232</v>
+        <v>253.269341183979</v>
       </c>
       <c r="AD3" t="n">
-        <v>171022.2603014806</v>
+        <v>204635.5005786575</v>
       </c>
       <c r="AE3" t="n">
-        <v>234000.2015140069</v>
+        <v>279991.3197727198</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.120805701760684e-06</v>
+        <v>8.16407478407235e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.973958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>211667.5507029232</v>
+        <v>253269.3411839789</v>
       </c>
     </row>
   </sheetData>
